--- a/Knowit modell.xlsx
+++ b/Knowit modell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusthodt/Desktop/Aksjemodellering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A09DDC9-850D-994B-8817-66A1A13D91E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA6C45F-50C0-3544-A888-A75917F52A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" activeTab="4" xr2:uid="{5AE0DF26-B7DD-1242-A60E-253C73A930AF}"/>
+    <workbookView xWindow="23760" yWindow="500" windowWidth="27440" windowHeight="26740" activeTab="1" xr2:uid="{5AE0DF26-B7DD-1242-A60E-253C73A930AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -596,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -651,6 +651,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1126,11 +1139,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9D41D6-FA1C-5144-915F-9569A5873643}">
   <dimension ref="A1:EN69"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U13" sqref="U13"/>
+      <selection pane="bottomRight" activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1150,8 +1163,9 @@
     <col min="14" max="14" width="11.33203125" style="2" customWidth="1"/>
     <col min="15" max="15" width="10.33203125" style="2" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" style="2"/>
-    <col min="17" max="17" width="10.83203125" style="4"/>
-    <col min="18" max="31" width="10.83203125" style="2"/>
+    <col min="17" max="17" width="10.83203125" style="48"/>
+    <col min="18" max="18" width="10.83203125" style="4"/>
+    <col min="19" max="31" width="10.83203125" style="2"/>
     <col min="32" max="32" width="10.83203125" style="4"/>
     <col min="33" max="43" width="10.83203125" style="2"/>
     <col min="44" max="44" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -1220,10 +1234,10 @@
       <c r="P3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="17" t="s">
         <v>35</v>
       </c>
       <c r="S3" s="7" t="s">
@@ -1298,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
@@ -1342,10 +1356,12 @@
       <c r="P4" s="12">
         <v>1593.6</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="50">
         <v>1490.5</v>
       </c>
-      <c r="R4" s="12"/>
+      <c r="R4" s="13">
+        <v>1238.8</v>
+      </c>
       <c r="S4" s="12"/>
       <c r="V4" s="12">
         <v>2230</v>
@@ -1471,10 +1487,12 @@
       <c r="P5" s="14">
         <v>-1446</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="51">
         <v>-1396.7</v>
       </c>
-      <c r="R5" s="14"/>
+      <c r="R5" s="15">
+        <v>-1119</v>
+      </c>
       <c r="S5" s="14"/>
       <c r="V5" s="14">
         <f>-304-212.543-1537.9</f>
@@ -1567,7 +1585,7 @@
       </c>
       <c r="B6" s="5">
         <f>B4*B5</f>
-        <v>3085.6909999999998</v>
+        <v>2812.6209999999996</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>49</v>
@@ -1611,10 +1629,12 @@
       <c r="P6" s="14">
         <v>-43.1</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="51">
         <v>-42.6</v>
       </c>
-      <c r="R6" s="14"/>
+      <c r="R6" s="15">
+        <v>-42.4</v>
+      </c>
       <c r="S6" s="14"/>
       <c r="V6" s="14">
         <v>-28.6</v>
@@ -1696,7 +1716,8 @@
         <v>40</v>
       </c>
       <c r="B7" s="5">
-        <v>241</v>
+        <f>R30</f>
+        <v>211.5</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>50</v>
@@ -1753,100 +1774,100 @@
         <f>SUM(P4:P6)</f>
         <v>104.49999999999991</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="50">
         <f t="shared" ref="Q7:S7" si="4">SUM(Q4:Q6)</f>
         <v>51.199999999999953</v>
       </c>
-      <c r="R7" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="R7" s="13">
+        <f t="shared" ref="R7" si="5">SUM(R4:R6)</f>
+        <v>77.399999999999949</v>
       </c>
       <c r="S7" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V7" s="12">
-        <f t="shared" ref="V7:AE7" si="5">SUM(V4:V6)</f>
+        <f t="shared" ref="V7:AE7" si="6">SUM(V4:V6)</f>
         <v>146.95699999999979</v>
       </c>
       <c r="W7" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>212.38399999999993</v>
       </c>
       <c r="X7" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>286.93000000000012</v>
       </c>
       <c r="Y7" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>321.07099999999991</v>
       </c>
       <c r="Z7" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>318.07699999999988</v>
       </c>
       <c r="AA7" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>333.31200000000007</v>
       </c>
       <c r="AB7" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>437.90499999999986</v>
       </c>
       <c r="AC7" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>596.47500000000002</v>
       </c>
       <c r="AD7" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>496.39299999999912</v>
       </c>
       <c r="AE7" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>366.72999999999956</v>
       </c>
       <c r="AF7" s="13">
-        <f t="shared" ref="AF7:AP7" si="6">SUM(AF4:AF6)</f>
+        <f t="shared" ref="AF7:AP7" si="7">SUM(AF4:AF6)</f>
         <v>388.80714000000023</v>
       </c>
       <c r="AG7" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>425.36578260000044</v>
       </c>
       <c r="AH7" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>493.83673844100184</v>
       </c>
       <c r="AI7" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>571.02760691728849</v>
       </c>
       <c r="AJ7" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>657.9398934158512</v>
       </c>
       <c r="AK7" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>755.68360531378494</v>
       </c>
       <c r="AL7" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>865.48857398066809</v>
       </c>
       <c r="AM7" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>988.71692774476378</v>
       </c>
       <c r="AN7" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1126.876830600675</v>
       </c>
       <c r="AO7" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1281.6376127151011</v>
       </c>
       <c r="AP7" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1454.8464311619084</v>
       </c>
     </row>
@@ -1855,8 +1876,8 @@
         <v>41</v>
       </c>
       <c r="B8" s="5">
-        <f>Q38+Q39</f>
-        <v>887.8</v>
+        <f>R38+R39</f>
+        <v>819.69999999999993</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>51</v>
@@ -1900,10 +1921,12 @@
       <c r="P8" s="14">
         <v>-40.5</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="51">
         <v>-40.1</v>
       </c>
-      <c r="R8" s="14"/>
+      <c r="R8" s="15">
+        <v>-41.4</v>
+      </c>
       <c r="S8" s="14"/>
       <c r="V8" s="14">
         <v>-11.56</v>
@@ -1945,39 +1968,39 @@
         <v>-171.01320000000001</v>
       </c>
       <c r="AH8" s="14">
-        <f t="shared" ref="AH8:AP8" si="7">AG8*1.02</f>
+        <f t="shared" ref="AH8:AP8" si="8">AG8*1.02</f>
         <v>-174.43346400000001</v>
       </c>
       <c r="AI8" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-177.92213328000003</v>
       </c>
       <c r="AJ8" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-181.48057594560004</v>
       </c>
       <c r="AK8" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-185.11018746451205</v>
       </c>
       <c r="AL8" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-188.8123912138023</v>
       </c>
       <c r="AM8" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-192.58863903807836</v>
       </c>
       <c r="AN8" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-196.44041181883992</v>
       </c>
       <c r="AO8" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-200.36922005521672</v>
       </c>
       <c r="AP8" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-204.37660445632105</v>
       </c>
     </row>
@@ -1987,45 +2010,45 @@
       </c>
       <c r="B9" s="6">
         <f>B6-B7+B8</f>
-        <v>3732.491</v>
+        <v>3420.8209999999995</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="12">
-        <f t="shared" ref="D9:L9" si="8">SUM(D7:D8)</f>
+        <f t="shared" ref="D9:L9" si="9">SUM(D7:D8)</f>
         <v>154.5</v>
       </c>
       <c r="E9" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>104.60000000000015</v>
       </c>
       <c r="F9" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>50.1</v>
       </c>
       <c r="G9" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>131.60000000000016</v>
       </c>
       <c r="H9" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>94.799999999999898</v>
       </c>
       <c r="I9" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33.50000000000005</v>
       </c>
       <c r="J9" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15.900000000000041</v>
       </c>
       <c r="K9" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>105.89999999999999</v>
       </c>
       <c r="L9" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>94.799999999999898</v>
       </c>
       <c r="M9" s="12">
@@ -2044,100 +2067,101 @@
         <f>SUM(P7:P8)</f>
         <v>63.999999999999915</v>
       </c>
-      <c r="Q9" s="13">
-        <f t="shared" ref="Q9:S9" si="9">SUM(Q7:Q8)</f>
+      <c r="Q9" s="50">
+        <f t="shared" ref="Q9:S9" si="10">SUM(Q7:Q8)</f>
         <v>11.099999999999952</v>
       </c>
-      <c r="R9" s="12">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="R9" s="13">
+        <f t="shared" ref="R9" si="11">SUM(R7:R8)</f>
+        <v>35.99999999999995</v>
       </c>
       <c r="S9" s="12">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="14"/>
       <c r="V9" s="12">
-        <f t="shared" ref="V9:AE9" si="10">SUM(V7:V8)</f>
+        <f t="shared" ref="V9:AE9" si="12">SUM(V7:V8)</f>
         <v>135.39699999999979</v>
       </c>
       <c r="W9" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200.58399999999992</v>
       </c>
       <c r="X9" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>275.23000000000013</v>
       </c>
       <c r="Y9" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>309.17099999999994</v>
       </c>
       <c r="Z9" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>313.07699999999988</v>
       </c>
       <c r="AA9" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>322.61100000000005</v>
       </c>
       <c r="AB9" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>362.65799999999984</v>
       </c>
       <c r="AC9" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>447.14400000000001</v>
       </c>
       <c r="AD9" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>309.85599999999909</v>
       </c>
       <c r="AE9" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200.72999999999956</v>
       </c>
       <c r="AF9" s="13">
-        <f t="shared" ref="AF9:AP9" si="11">SUM(AF7:AF8)</f>
+        <f t="shared" ref="AF9:AP9" si="13">SUM(AF7:AF8)</f>
         <v>221.14714000000023</v>
       </c>
       <c r="AG9" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>254.35258260000043</v>
       </c>
       <c r="AH9" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>319.40327444100183</v>
       </c>
       <c r="AI9" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>393.10547363728847</v>
       </c>
       <c r="AJ9" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>476.45931747025116</v>
       </c>
       <c r="AK9" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>570.57341784927291</v>
       </c>
       <c r="AL9" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>676.67618276686585</v>
       </c>
       <c r="AM9" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>796.12828870668545</v>
       </c>
       <c r="AN9" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>930.43641878183507</v>
       </c>
       <c r="AO9" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1081.2683926598843</v>
       </c>
       <c r="AP9" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1250.4698267055874</v>
       </c>
     </row>
@@ -2184,10 +2208,12 @@
       <c r="P10" s="14">
         <v>2.5</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="51">
         <v>2.2000000000000002</v>
       </c>
-      <c r="R10" s="14"/>
+      <c r="R10" s="15">
+        <v>1.4</v>
+      </c>
       <c r="S10" s="14"/>
       <c r="V10" s="14">
         <v>1.1000000000000001</v>
@@ -2296,10 +2322,12 @@
       <c r="P11" s="14">
         <v>-14.9</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q11" s="51">
         <v>-9.6</v>
       </c>
-      <c r="R11" s="14"/>
+      <c r="R11" s="15">
+        <v>-10.4</v>
+      </c>
       <c r="S11" s="14"/>
       <c r="V11" s="14">
         <v>-20.177</v>
@@ -2370,39 +2398,39 @@
         <v>55</v>
       </c>
       <c r="D12" s="14">
-        <f t="shared" ref="D12:L12" si="12">SUM(D9:D11)</f>
+        <f t="shared" ref="D12:L12" si="14">SUM(D9:D11)</f>
         <v>133.29999999999998</v>
       </c>
       <c r="E12" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>153.20000000000013</v>
       </c>
       <c r="F12" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>37.200000000000003</v>
       </c>
       <c r="G12" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>136.70000000000016</v>
       </c>
       <c r="H12" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>82.099999999999895</v>
       </c>
       <c r="I12" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>33.100000000000044</v>
       </c>
       <c r="J12" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>38.700000000000038</v>
       </c>
       <c r="K12" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="L12" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>82.099999999999895</v>
       </c>
       <c r="M12" s="14">
@@ -2421,100 +2449,100 @@
         <f>SUM(P9:P11)</f>
         <v>51.599999999999916</v>
       </c>
-      <c r="Q12" s="15">
-        <f t="shared" ref="Q12:S12" si="13">SUM(Q9:Q11)</f>
+      <c r="Q12" s="51">
+        <f t="shared" ref="Q12:S12" si="15">SUM(Q9:Q11)</f>
         <v>3.6999999999999513</v>
       </c>
-      <c r="R12" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="R12" s="15">
+        <f t="shared" ref="R12" si="16">SUM(R9:R11)</f>
+        <v>26.99999999999995</v>
       </c>
       <c r="S12" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V12" s="14">
-        <f t="shared" ref="V12:AE12" si="14">SUM(V9:V11)</f>
+        <f t="shared" ref="V12:AE12" si="17">SUM(V9:V11)</f>
         <v>116.31999999999979</v>
       </c>
       <c r="W12" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>191.28399999999991</v>
       </c>
       <c r="X12" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>266.04200000000014</v>
       </c>
       <c r="Y12" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>303.94999999999993</v>
       </c>
       <c r="Z12" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>313.19499999999994</v>
       </c>
       <c r="AA12" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>331.79000000000008</v>
       </c>
       <c r="AB12" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>369.49499999999989</v>
       </c>
       <c r="AC12" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>483.67599999999999</v>
       </c>
       <c r="AD12" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>304.13099999999906</v>
       </c>
       <c r="AE12" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>154.01799999999957</v>
       </c>
       <c r="AF12" s="15">
-        <f t="shared" ref="AF12:AP12" si="15">SUM(AF9:AF11)</f>
+        <f t="shared" ref="AF12:AP12" si="18">SUM(AF9:AF11)</f>
         <v>221.14714000000023</v>
       </c>
       <c r="AG12" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>254.35258260000043</v>
       </c>
       <c r="AH12" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>319.40327444100183</v>
       </c>
       <c r="AI12" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>393.10547363728847</v>
       </c>
       <c r="AJ12" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>476.45931747025116</v>
       </c>
       <c r="AK12" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>570.57341784927291</v>
       </c>
       <c r="AL12" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>676.67618276686585</v>
       </c>
       <c r="AM12" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>796.12828870668545</v>
       </c>
       <c r="AN12" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>930.43641878183507</v>
       </c>
       <c r="AO12" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1081.2683926598843</v>
       </c>
       <c r="AP12" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1250.4698267055874</v>
       </c>
     </row>
@@ -2561,10 +2589,12 @@
       <c r="P13" s="14">
         <v>-12.1</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13" s="51">
         <v>-3</v>
       </c>
-      <c r="R13" s="14"/>
+      <c r="R13" s="15">
+        <v>-6.8</v>
+      </c>
       <c r="S13" s="14"/>
       <c r="V13" s="14">
         <v>-24</v>
@@ -2601,43 +2631,43 @@
         <v>-45.335163700000045</v>
       </c>
       <c r="AG13" s="14">
-        <f t="shared" ref="AG13:AP13" si="16">AG12*-0.205</f>
+        <f t="shared" ref="AG13:AP13" si="19">AG12*-0.205</f>
         <v>-52.142279433000084</v>
       </c>
       <c r="AH13" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-65.477671260405373</v>
       </c>
       <c r="AI13" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-80.586622095644131</v>
       </c>
       <c r="AJ13" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-97.674160081401482</v>
       </c>
       <c r="AK13" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-116.96755065910094</v>
       </c>
       <c r="AL13" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-138.71861746720748</v>
       </c>
       <c r="AM13" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-163.20629918487052</v>
       </c>
       <c r="AN13" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-190.73946585027619</v>
       </c>
       <c r="AO13" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-221.66002049527626</v>
       </c>
       <c r="AP13" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-256.3463144746454</v>
       </c>
     </row>
@@ -2646,39 +2676,39 @@
         <v>57</v>
       </c>
       <c r="D14" s="12">
-        <f t="shared" ref="D14:L14" si="17">SUM(D12:D13)</f>
+        <f t="shared" ref="D14:L14" si="20">SUM(D12:D13)</f>
         <v>104.09999999999998</v>
       </c>
       <c r="E14" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>130.30000000000013</v>
       </c>
       <c r="F14" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>21.200000000000003</v>
       </c>
       <c r="G14" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>119.00000000000016</v>
       </c>
       <c r="H14" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>63.899999999999892</v>
       </c>
       <c r="I14" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>19.900000000000045</v>
       </c>
       <c r="J14" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>26.30000000000004</v>
       </c>
       <c r="K14" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>91.5</v>
       </c>
       <c r="L14" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>63.899999999999892</v>
       </c>
       <c r="M14" s="12">
@@ -2697,102 +2727,102 @@
         <f>SUM(P12:P13)</f>
         <v>39.499999999999915</v>
       </c>
-      <c r="Q14" s="13">
-        <f t="shared" ref="Q14:Y14" si="18">SUM(Q12:Q13)</f>
+      <c r="Q14" s="50">
+        <f t="shared" ref="Q14:Y14" si="21">SUM(Q12:Q13)</f>
         <v>0.69999999999995133</v>
       </c>
-      <c r="R14" s="12">
-        <f t="shared" si="18"/>
-        <v>0</v>
+      <c r="R14" s="13">
+        <f t="shared" ref="R14" si="22">SUM(R12:R13)</f>
+        <v>20.19999999999995</v>
       </c>
       <c r="S14" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>92.319999999999794</v>
       </c>
       <c r="W14" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>144.08399999999989</v>
       </c>
       <c r="X14" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>201.74200000000013</v>
       </c>
       <c r="Y14" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>232.24999999999994</v>
       </c>
       <c r="Z14" s="12">
-        <f t="shared" ref="Z14:AE14" si="19">SUM(Z12:Z13)</f>
+        <f t="shared" ref="Z14:AE14" si="23">SUM(Z12:Z13)</f>
         <v>241.74299999999994</v>
       </c>
       <c r="AA14" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>257.79000000000008</v>
       </c>
       <c r="AB14" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>294.17699999999991</v>
       </c>
       <c r="AC14" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>392.18700000000001</v>
       </c>
       <c r="AD14" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>241.83799999999906</v>
       </c>
       <c r="AE14" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>111.34999999999957</v>
       </c>
       <c r="AF14" s="13">
-        <f t="shared" ref="AF14:AP14" si="20">SUM(AF12:AF13)</f>
+        <f t="shared" ref="AF14:AP14" si="24">SUM(AF12:AF13)</f>
         <v>175.8119763000002</v>
       </c>
       <c r="AG14" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>202.21030316700035</v>
       </c>
       <c r="AH14" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>253.92560318059645</v>
       </c>
       <c r="AI14" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>312.51885154164432</v>
       </c>
       <c r="AJ14" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>378.78515738884971</v>
       </c>
       <c r="AK14" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>453.60586719017198</v>
       </c>
       <c r="AL14" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>537.95756529965843</v>
       </c>
       <c r="AM14" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>632.92198952181491</v>
       </c>
       <c r="AN14" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>739.69695293155883</v>
       </c>
       <c r="AO14" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>859.608372164608</v>
       </c>
       <c r="AP14" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>994.12351223094197</v>
       </c>
       <c r="AQ14" s="12">
@@ -2800,407 +2830,407 @@
         <v>984.18227710863255</v>
       </c>
       <c r="AR14" s="12">
-        <f t="shared" ref="AR14:DC14" si="21">AQ14*(1+$AS$18)</f>
+        <f t="shared" ref="AR14:DC14" si="25">AQ14*(1+$AS$18)</f>
         <v>974.34045433754625</v>
       </c>
       <c r="AS14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>964.59704979417074</v>
       </c>
       <c r="AT14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>954.95107929622907</v>
       </c>
       <c r="AU14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>945.40156850326673</v>
       </c>
       <c r="AV14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>935.94755281823404</v>
       </c>
       <c r="AW14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>926.58807729005173</v>
       </c>
       <c r="AX14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>917.32219651715116</v>
       </c>
       <c r="AY14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>908.14897455197968</v>
       </c>
       <c r="AZ14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>899.0674848064599</v>
       </c>
       <c r="BA14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>890.0768099583953</v>
       </c>
       <c r="BB14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>881.17604185881135</v>
       </c>
       <c r="BC14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>872.36428144022318</v>
       </c>
       <c r="BD14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>863.640638625821</v>
       </c>
       <c r="BE14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>855.00423223956273</v>
       </c>
       <c r="BF14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>846.45418991716713</v>
       </c>
       <c r="BG14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>837.98964801799548</v>
       </c>
       <c r="BH14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>829.60975153781555</v>
       </c>
       <c r="BI14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>821.31365402243739</v>
       </c>
       <c r="BJ14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>813.10051748221304</v>
       </c>
       <c r="BK14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>804.96951230739091</v>
       </c>
       <c r="BL14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>796.91981718431703</v>
       </c>
       <c r="BM14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>788.95061901247379</v>
       </c>
       <c r="BN14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>781.06111282234906</v>
       </c>
       <c r="BO14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>773.25050169412555</v>
       </c>
       <c r="BP14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>765.51799667718433</v>
       </c>
       <c r="BQ14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>757.86281671041252</v>
       </c>
       <c r="BR14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>750.28418854330835</v>
       </c>
       <c r="BS14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>742.78134665787525</v>
       </c>
       <c r="BT14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>735.35353319129649</v>
       </c>
       <c r="BU14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>727.99999785938348</v>
       </c>
       <c r="BV14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>720.71999788078961</v>
       </c>
       <c r="BW14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>713.51279790198168</v>
       </c>
       <c r="BX14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>706.3776699229619</v>
       </c>
       <c r="BY14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>699.31389322373229</v>
       </c>
       <c r="BZ14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>692.32075429149495</v>
       </c>
       <c r="CA14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>685.39754674858</v>
       </c>
       <c r="CB14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>678.54357128109416</v>
       </c>
       <c r="CC14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>671.75813556828325</v>
       </c>
       <c r="CD14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>665.04055421260045</v>
       </c>
       <c r="CE14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>658.39014867047445</v>
       </c>
       <c r="CF14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>651.80624718376964</v>
       </c>
       <c r="CG14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>645.28818471193199</v>
       </c>
       <c r="CH14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>638.83530286481266</v>
       </c>
       <c r="CI14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>632.44694983616455</v>
       </c>
       <c r="CJ14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>626.12248033780293</v>
       </c>
       <c r="CK14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>619.86125553442491</v>
       </c>
       <c r="CL14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>613.66264297908072</v>
       </c>
       <c r="CM14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>607.52601654928992</v>
       </c>
       <c r="CN14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>601.45075638379706</v>
       </c>
       <c r="CO14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>595.43624881995913</v>
       </c>
       <c r="CP14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>589.48188633175948</v>
       </c>
       <c r="CQ14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>583.58706746844189</v>
       </c>
       <c r="CR14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>577.75119679375746</v>
       </c>
       <c r="CS14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>571.97368482581987</v>
       </c>
       <c r="CT14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>566.25394797756167</v>
       </c>
       <c r="CU14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>560.59140849778601</v>
       </c>
       <c r="CV14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>554.98549441280818</v>
       </c>
       <c r="CW14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>549.43563946868005</v>
       </c>
       <c r="CX14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>543.94128307399319</v>
       </c>
       <c r="CY14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>538.50187024325328</v>
       </c>
       <c r="CZ14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>533.11685154082079</v>
       </c>
       <c r="DA14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>527.7856830254126</v>
       </c>
       <c r="DB14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>522.50782619515849</v>
       </c>
       <c r="DC14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>517.28274793320691</v>
       </c>
       <c r="DD14" s="12">
-        <f t="shared" ref="DD14:EN14" si="22">DC14*(1+$AS$18)</f>
+        <f t="shared" ref="DD14:EN14" si="26">DC14*(1+$AS$18)</f>
         <v>512.10992045387479</v>
       </c>
       <c r="DE14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>506.98882124933601</v>
       </c>
       <c r="DF14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>501.91893303684265</v>
       </c>
       <c r="DG14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>496.89974370647423</v>
       </c>
       <c r="DH14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>491.9307462694095</v>
       </c>
       <c r="DI14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>487.01143880671538</v>
       </c>
       <c r="DJ14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>482.1413244186482</v>
       </c>
       <c r="DK14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>477.31991117446171</v>
       </c>
       <c r="DL14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>472.54671206271706</v>
       </c>
       <c r="DM14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>467.82124494208989</v>
       </c>
       <c r="DN14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>463.14303249266897</v>
       </c>
       <c r="DO14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>458.5116021677423</v>
       </c>
       <c r="DP14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>453.92648614606486</v>
       </c>
       <c r="DQ14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>449.38722128460421</v>
       </c>
       <c r="DR14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>444.89334907175817</v>
       </c>
       <c r="DS14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>440.44441558104057</v>
       </c>
       <c r="DT14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>436.03997142523019</v>
       </c>
       <c r="DU14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>431.67957171097788</v>
       </c>
       <c r="DV14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>427.36277599386813</v>
       </c>
       <c r="DW14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>423.08914823392945</v>
       </c>
       <c r="DX14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>418.85825675159015</v>
       </c>
       <c r="DY14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>414.66967418407427</v>
       </c>
       <c r="DZ14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>410.52297744223353</v>
       </c>
       <c r="EA14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>406.41774766781117</v>
       </c>
       <c r="EB14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>402.35357019113303</v>
       </c>
       <c r="EC14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>398.3300344892217</v>
       </c>
       <c r="ED14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>394.3467341443295</v>
       </c>
       <c r="EE14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>390.40326680288621</v>
       </c>
       <c r="EF14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>386.49923413485732</v>
       </c>
       <c r="EG14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>382.63424179350875</v>
       </c>
       <c r="EH14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>378.80789937557364</v>
       </c>
       <c r="EI14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>375.01982038181791</v>
       </c>
       <c r="EJ14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>371.26962217799974</v>
       </c>
       <c r="EK14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>367.55692595621974</v>
       </c>
       <c r="EL14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>363.88135669665752</v>
       </c>
       <c r="EM14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>360.24254312969094</v>
       </c>
       <c r="EN14" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>356.64011769839402</v>
       </c>
     </row>
@@ -3247,10 +3277,10 @@
       <c r="P15" s="9">
         <v>27.306999999999999</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="52">
         <v>27.306999999999999</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="8">
         <v>27.306999999999999</v>
       </c>
       <c r="S15" s="9">
@@ -3325,99 +3355,99 @@
         <v>59</v>
       </c>
       <c r="D16" s="19">
-        <f t="shared" ref="D16:O16" si="23">D14/D15</f>
+        <f t="shared" ref="D16:O16" si="27">D14/D15</f>
         <v>3.8063548941460374</v>
       </c>
       <c r="E16" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.7643423891184362</v>
       </c>
       <c r="F16" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.77516545394712799</v>
       </c>
       <c r="G16" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.3511645764013362</v>
       </c>
       <c r="H16" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.3364656843028957</v>
       </c>
       <c r="I16" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.72763172328056036</v>
       </c>
       <c r="J16" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.96164393579290064</v>
       </c>
       <c r="K16" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>3.345643350762368</v>
       </c>
       <c r="L16" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>2.3364656843028957</v>
       </c>
       <c r="M16" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.20141355696341781</v>
       </c>
       <c r="N16" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.11718606950598912</v>
       </c>
       <c r="O16" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1.3842604460394807</v>
       </c>
       <c r="P16" s="19">
         <f>P14/P15</f>
         <v>1.4465155454645298</v>
       </c>
-      <c r="Q16" s="22">
-        <f t="shared" ref="Q16:S16" si="24">Q14/Q15</f>
+      <c r="Q16" s="53">
+        <f t="shared" ref="Q16:S16" si="28">Q14/Q15</f>
         <v>2.5634452704432979E-2</v>
       </c>
-      <c r="R16" s="19">
-        <f t="shared" si="24"/>
-        <v>0</v>
+      <c r="R16" s="22">
+        <f t="shared" si="28"/>
+        <v>0.73973706375654413</v>
       </c>
       <c r="S16" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V16" s="19">
-        <f t="shared" ref="V16:AC16" si="25">V14/V15</f>
+        <f t="shared" ref="V16:AC16" si="29">V14/V15</f>
         <v>5.0203926260264176</v>
       </c>
       <c r="W16" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>7.6178492122237431</v>
       </c>
       <c r="X16" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>10.540885103714935</v>
       </c>
       <c r="Y16" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12.063055108294808</v>
       </c>
       <c r="Z16" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12.555468993455902</v>
       </c>
       <c r="AA16" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>13.370850622406643</v>
       </c>
       <c r="AB16" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>12.398929444491271</v>
       </c>
       <c r="AC16" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>14.308694224524793</v>
       </c>
       <c r="AD16" s="19">
@@ -3429,47 +3459,47 @@
         <v>4.0777090123411419</v>
       </c>
       <c r="AF16" s="22">
-        <f t="shared" ref="AF16:AP16" si="26">AF14/AF15</f>
+        <f t="shared" ref="AF16:AP16" si="30">AF14/AF15</f>
         <v>6.4383482733365147</v>
       </c>
       <c r="AG16" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>7.4050720755484072</v>
       </c>
       <c r="AH16" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>9.2989198073972421</v>
       </c>
       <c r="AI16" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>11.444642455840786</v>
       </c>
       <c r="AJ16" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>13.871357431751921</v>
       </c>
       <c r="AK16" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>16.611340212772255</v>
       </c>
       <c r="AL16" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>19.700353949524242</v>
       </c>
       <c r="AM16" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>23.178012579991027</v>
       </c>
       <c r="AN16" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>27.088180793626503</v>
       </c>
       <c r="AO16" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>31.479414515128283</v>
       </c>
       <c r="AP16" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>36.405445938072361</v>
       </c>
     </row>
@@ -3508,84 +3538,84 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="21">
-        <f t="shared" ref="H18:O18" si="27">(H4-D4)/D4</f>
+        <f t="shared" ref="H18:O18" si="31">(H4-D4)/D4</f>
         <v>-0.10362852068003048</v>
       </c>
       <c r="I18" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>6.9374353985529214E-2</v>
       </c>
       <c r="J18" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>2.6037214807022098E-2</v>
       </c>
       <c r="K18" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-7.5472654468042008E-2</v>
       </c>
       <c r="L18" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M18" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-4.4064134637252672E-2</v>
       </c>
       <c r="N18" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-0.15027234860621597</v>
       </c>
       <c r="O18" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-9.983552631578943E-2</v>
       </c>
       <c r="P18" s="21">
         <f>(P4-L4)/L4</f>
         <v>-9.7775009907716717E-2</v>
       </c>
-      <c r="Q18" s="23">
-        <f t="shared" ref="Q18:S18" si="28">(Q4-M4)/M4</f>
+      <c r="Q18" s="54">
+        <f t="shared" ref="Q18:S18" si="32">(Q4-M4)/M4</f>
         <v>-0.11348361387021945</v>
       </c>
-      <c r="R18" s="21">
-        <f t="shared" si="28"/>
-        <v>-1</v>
+      <c r="R18" s="23">
+        <f t="shared" si="32"/>
+        <v>-6.5761689291101086E-2</v>
       </c>
       <c r="S18" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>-1</v>
       </c>
       <c r="V18" s="21"/>
       <c r="W18" s="21">
-        <f t="shared" ref="W18:W19" si="29">(W4-V4)/V4</f>
+        <f t="shared" ref="W18:W19" si="33">(W4-V4)/V4</f>
         <v>8.7990134529147918E-2</v>
       </c>
       <c r="X18" s="21">
-        <f t="shared" ref="X18:X19" si="30">(X4-W4)/W4</f>
+        <f t="shared" ref="X18:X19" si="34">(X4-W4)/W4</f>
         <v>0.12665102641230111</v>
       </c>
       <c r="Y18" s="21">
-        <f t="shared" ref="Y18:Y19" si="31">(Y4-X4)/X4</f>
+        <f t="shared" ref="Y18:Y19" si="35">(Y4-X4)/X4</f>
         <v>0.12796885752008133</v>
       </c>
       <c r="Z18" s="21">
-        <f t="shared" ref="Z18:Z19" si="32">(Z4-Y4)/Y4</f>
+        <f t="shared" ref="Z18:Z19" si="36">(Z4-Y4)/Y4</f>
         <v>8.1631911741430585E-2</v>
       </c>
       <c r="AA18" s="21">
-        <f t="shared" ref="AA18:AD18" si="33">(AA4-Z4)/Z4</f>
+        <f t="shared" ref="AA18:AD18" si="37">(AA4-Z4)/Z4</f>
         <v>1.3193403298350824E-2</v>
       </c>
       <c r="AB18" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0.4240423202130808</v>
       </c>
       <c r="AC18" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0.42019423343133472</v>
       </c>
       <c r="AD18" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>4.098396399280857E-2</v>
       </c>
       <c r="AE18" s="21">
@@ -3593,47 +3623,47 @@
         <v>-9.8129556272157581E-2</v>
       </c>
       <c r="AF18" s="23">
-        <f t="shared" ref="AF18:AP18" si="34">(AF4-AE4)/AE4</f>
+        <f t="shared" ref="AF18:AP18" si="38">(AF4-AE4)/AE4</f>
         <v>-9.9999999999999922E-2</v>
       </c>
       <c r="AG18" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>9.0000000000000066E-2</v>
       </c>
       <c r="AH18" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>9.0000000000000108E-2</v>
       </c>
       <c r="AI18" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>9.0000000000000135E-2</v>
       </c>
       <c r="AJ18" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>9.000000000000008E-2</v>
       </c>
       <c r="AK18" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>9.000000000000008E-2</v>
       </c>
       <c r="AL18" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>9.0000000000000038E-2</v>
       </c>
       <c r="AM18" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.09</v>
       </c>
       <c r="AN18" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>9.0000000000000011E-2</v>
       </c>
       <c r="AO18" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>9.0000000000000149E-2</v>
       </c>
       <c r="AP18" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>9.0000000000000038E-2</v>
       </c>
       <c r="AR18" s="2" t="s">
@@ -3652,84 +3682,84 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="21">
-        <f t="shared" ref="H19:O19" si="35">(H5-D5)/D5</f>
+        <f t="shared" ref="H19:O19" si="39">(H5-D5)/D5</f>
         <v>-8.1794500723588973E-2</v>
       </c>
       <c r="I19" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.1109527687296417</v>
       </c>
       <c r="J19" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>3.4364014635196109E-2</v>
       </c>
       <c r="K19" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-6.8241469816272923E-2</v>
       </c>
       <c r="L19" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M19" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-4.0009773379756891E-2</v>
       </c>
       <c r="N19" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-0.15050631155500069</v>
       </c>
       <c r="O19" s="21">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-8.6037966932026949E-2</v>
       </c>
       <c r="P19" s="21">
         <f>(P5-L5)/L5</f>
         <v>-8.8387340814525303E-2</v>
       </c>
-      <c r="Q19" s="23">
-        <f t="shared" ref="Q19:S19" si="36">(Q5-M5)/M5</f>
+      <c r="Q19" s="54">
+        <f t="shared" ref="Q19:S19" si="40">(Q5-M5)/M5</f>
         <v>-0.1112878595062356</v>
       </c>
-      <c r="R19" s="21">
-        <f t="shared" si="36"/>
-        <v>-1</v>
+      <c r="R19" s="23">
+        <f t="shared" si="40"/>
+        <v>-8.6381450032658361E-2</v>
       </c>
       <c r="S19" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-1</v>
       </c>
       <c r="V19" s="21"/>
       <c r="W19" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>7.2433744815504575E-2</v>
       </c>
       <c r="X19" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.10784820996580521</v>
       </c>
       <c r="Y19" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.12920060093302763</v>
       </c>
       <c r="Z19" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>6.7986269665880922E-2</v>
       </c>
       <c r="AA19" s="21">
-        <f t="shared" ref="AA19:AD19" si="37">(AA5-Z5)/Z5</f>
+        <f t="shared" ref="AA19:AD19" si="41">(AA5-Z5)/Z5</f>
         <v>9.6490068857415963E-3</v>
       </c>
       <c r="AB19" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0.43012467606229032</v>
       </c>
       <c r="AC19" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0.4324610468473038</v>
       </c>
       <c r="AD19" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>5.7641499238397599E-2</v>
       </c>
       <c r="AE19" s="21">
@@ -3737,47 +3767,47 @@
         <v>-8.7649568820331439E-2</v>
       </c>
       <c r="AF19" s="23">
-        <f t="shared" ref="AF19:AP19" si="38">(AF5-AE5)/AE5</f>
+        <f t="shared" ref="AF19:AP19" si="42">(AF5-AE5)/AE5</f>
         <v>-0.11000000000000003</v>
       </c>
       <c r="AG19" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>9.0000000000000038E-2</v>
       </c>
       <c r="AH19" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>8.4999999999999895E-2</v>
       </c>
       <c r="AI19" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>8.4999999999999909E-2</v>
       </c>
       <c r="AJ19" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>8.4999999999999909E-2</v>
       </c>
       <c r="AK19" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>8.4999999999999923E-2</v>
       </c>
       <c r="AL19" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>8.500000000000002E-2</v>
       </c>
       <c r="AM19" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>8.4999999999999978E-2</v>
       </c>
       <c r="AN19" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>8.5000000000000048E-2</v>
       </c>
       <c r="AO19" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>8.4999999999999964E-2</v>
       </c>
       <c r="AP19" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="AR19" s="33" t="s">
@@ -3793,151 +3823,151 @@
         <v>99</v>
       </c>
       <c r="D20" s="10">
-        <f t="shared" ref="D20:O20" si="39">D7/D4</f>
+        <f t="shared" ref="D20:O20" si="43">D7/D4</f>
         <v>0.10007612281146916</v>
       </c>
       <c r="E20" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>8.2933057700492585E-2</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>5.9175488197777626E-2</v>
       </c>
       <c r="G20" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>9.0222515079324939E-2</v>
       </c>
       <c r="H20" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>7.7110343656230484E-2</v>
       </c>
       <c r="I20" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>4.3552422105981384E-2</v>
       </c>
       <c r="J20" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>4.7933354694008355E-2</v>
       </c>
       <c r="K20" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>8.0975877192982451E-2</v>
       </c>
       <c r="L20" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>7.7110343656230484E-2</v>
       </c>
       <c r="M20" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>3.9195860346160738E-2</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>4.3514328808446488E-2</v>
       </c>
       <c r="O20" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>6.4924782264449782E-2</v>
       </c>
       <c r="P20" s="10">
         <f>P7/P4</f>
         <v>6.5574799196787104E-2</v>
       </c>
-      <c r="Q20" s="24">
-        <f t="shared" ref="Q20:S20" si="40">Q7/Q4</f>
+      <c r="Q20" s="55">
+        <f t="shared" ref="Q20:S20" si="44">Q7/Q4</f>
         <v>3.4350888963435057E-2</v>
       </c>
-      <c r="R20" s="10" t="e">
-        <f t="shared" si="40"/>
+      <c r="R20" s="24">
+        <f t="shared" si="44"/>
+        <v>6.2479819179851431E-2</v>
+      </c>
+      <c r="S20" s="10" t="e">
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S20" s="10" t="e">
-        <f t="shared" si="40"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="V20" s="10">
-        <f t="shared" ref="V20:Y20" si="41">V7/V4</f>
+        <f t="shared" ref="V20:Y20" si="45">V7/V4</f>
         <v>6.5899999999999903E-2</v>
       </c>
       <c r="W20" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>8.7537063858235301E-2</v>
       </c>
       <c r="X20" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.10496795135615465</v>
       </c>
       <c r="Y20" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.10413212579752107</v>
       </c>
       <c r="Z20" s="10">
-        <f t="shared" ref="Z20:AP20" si="42">Z7/Z4</f>
+        <f t="shared" ref="Z20:AP20" si="46">Z7/Z4</f>
         <v>9.5375412293853046E-2</v>
       </c>
       <c r="AA20" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>9.86422018348624E-2</v>
       </c>
       <c r="AB20" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>9.1005746451616493E-2</v>
       </c>
       <c r="AC20" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>8.7283753303093209E-2</v>
       </c>
       <c r="AD20" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>6.9778684307446506E-2</v>
       </c>
       <c r="AE20" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>5.716094657143421E-2</v>
       </c>
       <c r="AF20" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>6.7335594022039161E-2</v>
       </c>
       <c r="AG20" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>6.7584408543820182E-2</v>
       </c>
       <c r="AH20" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>7.1984810194318211E-2</v>
       </c>
       <c r="AI20" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>7.6363895636237134E-2</v>
       </c>
       <c r="AJ20" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>8.0721773025395224E-2</v>
       </c>
       <c r="AK20" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>8.5058549926299326E-2</v>
       </c>
       <c r="AL20" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>8.9374333315730345E-2</v>
       </c>
       <c r="AM20" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>9.3669229586304747E-2</v>
       </c>
       <c r="AN20" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>9.7943344550011288E-2</v>
       </c>
       <c r="AO20" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0.10219678344172413</v>
       </c>
       <c r="AP20" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0.10642965092269113</v>
       </c>
       <c r="AR20" s="2" t="s">
@@ -3952,151 +3982,151 @@
         <v>44</v>
       </c>
       <c r="D21" s="10">
-        <f t="shared" ref="D21:P21" si="43">D9/D4</f>
+        <f t="shared" ref="D21:P21" si="47">D9/D4</f>
         <v>7.8406495813245367E-2</v>
       </c>
       <c r="E21" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>6.3598224600231137E-2</v>
       </c>
       <c r="F21" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3.294102176342955E-2</v>
       </c>
       <c r="G21" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>6.6703836991231266E-2</v>
       </c>
       <c r="H21" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>5.3671516729887278E-2</v>
       </c>
       <c r="I21" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1.904707755287699E-2</v>
       </c>
       <c r="J21" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1.0189041973726396E-2</v>
       </c>
       <c r="K21" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>5.8059210526315783E-2</v>
       </c>
       <c r="L21" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>5.3671516729887278E-2</v>
       </c>
       <c r="M21" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1.4274668411348392E-2</v>
       </c>
       <c r="N21" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1.2141779788838646E-2</v>
       </c>
       <c r="O21" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3.9466471770509833E-2</v>
       </c>
       <c r="P21" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>4.0160642570281076E-2</v>
       </c>
-      <c r="Q21" s="24">
-        <f t="shared" ref="Q21:S21" si="44">Q9/Q4</f>
+      <c r="Q21" s="55">
+        <f t="shared" ref="Q21:S21" si="48">Q9/Q4</f>
         <v>7.4471653807446844E-3</v>
       </c>
-      <c r="R21" s="10" t="e">
-        <f t="shared" si="44"/>
+      <c r="R21" s="24">
+        <f t="shared" si="48"/>
+        <v>2.9060381013884366E-2</v>
+      </c>
+      <c r="S21" s="10" t="e">
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S21" s="10" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="V21" s="10">
-        <f t="shared" ref="V21:Y21" si="45">V9/V4</f>
+        <f t="shared" ref="V21:Y21" si="49">V9/V4</f>
         <v>6.0716143497757752E-2</v>
       </c>
       <c r="W21" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>8.2673527275784753E-2</v>
       </c>
       <c r="X21" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.10068772610655716</v>
       </c>
       <c r="Y21" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.10027262962069258</v>
       </c>
       <c r="Z21" s="10">
-        <f t="shared" ref="Z21:AP21" si="46">Z9/Z4</f>
+        <f t="shared" ref="Z21:AP21" si="50">Z9/Z4</f>
         <v>9.3876161919040441E-2</v>
       </c>
       <c r="AA21" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>9.5475288546907386E-2</v>
       </c>
       <c r="AB21" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>7.5367858317786585E-2</v>
       </c>
       <c r="AC21" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>6.5431755877376777E-2</v>
       </c>
       <c r="AD21" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>4.3556907540533651E-2</v>
       </c>
       <c r="AE21" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>3.1287096243241559E-2</v>
       </c>
       <c r="AF21" s="24">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>3.8299384209289633E-2</v>
       </c>
       <c r="AG21" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>4.0412909452990357E-2</v>
       </c>
       <c r="AH21" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>4.6558269760697643E-2</v>
       </c>
       <c r="AI21" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>5.2570252294683942E-2</v>
       </c>
       <c r="AJ21" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>5.8456161825042693E-2</v>
       </c>
       <c r="AK21" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>6.4222840362666678E-2</v>
       </c>
       <c r="AL21" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>6.9876696843340164E-2</v>
       </c>
       <c r="AM21" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>7.542373490571945E-2</v>
       </c>
       <c r="AN21" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>8.086957888561036E-2</v>
       </c>
       <c r="AO21" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>8.621949814109206E-2</v>
       </c>
       <c r="AP21" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>9.1478429815677637E-2</v>
       </c>
       <c r="AR21" s="2" t="s">
@@ -4124,8 +4154,8 @@
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
       <c r="P22" s="20"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="20"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="36"/>
       <c r="S22" s="20"/>
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
@@ -4175,7 +4205,7 @@
       </c>
       <c r="AS22" s="18">
         <f>(AS21-B4)/B4</f>
-        <v>1.1973376569332759</v>
+        <v>1.410671410033594</v>
       </c>
     </row>
     <row r="23" spans="3:45" x14ac:dyDescent="0.25">
@@ -4267,10 +4297,12 @@
       <c r="P25" s="14">
         <v>4201.1000000000004</v>
       </c>
-      <c r="Q25" s="15">
+      <c r="Q25" s="51">
         <v>4070</v>
       </c>
-      <c r="R25" s="14"/>
+      <c r="R25" s="15">
+        <v>4172.3999999999996</v>
+      </c>
       <c r="S25" s="14"/>
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
@@ -4321,11 +4353,13 @@
       <c r="P26" s="14">
         <v>515.4</v>
       </c>
-      <c r="Q26" s="15">
+      <c r="Q26" s="51">
         <f>488.2+189</f>
         <v>677.2</v>
       </c>
-      <c r="R26" s="14"/>
+      <c r="R26" s="15">
+        <v>458.5</v>
+      </c>
       <c r="S26" s="14"/>
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
@@ -4377,10 +4411,12 @@
       <c r="P27" s="14">
         <v>6.9</v>
       </c>
-      <c r="Q27" s="15">
+      <c r="Q27" s="51">
         <v>6.9</v>
       </c>
-      <c r="R27" s="14"/>
+      <c r="R27" s="15">
+        <v>6.9</v>
+      </c>
       <c r="S27" s="14"/>
     </row>
     <row r="28" spans="3:45" x14ac:dyDescent="0.25">
@@ -4426,11 +4462,13 @@
       <c r="P28" s="14">
         <v>111</v>
       </c>
-      <c r="Q28" s="15">
+      <c r="Q28" s="51">
         <v>108.7</v>
       </c>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
+      <c r="R28" s="15">
+        <v>106.2</v>
+      </c>
+      <c r="S28" s="14"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -4484,10 +4522,12 @@
       <c r="P29" s="14">
         <v>1521</v>
       </c>
-      <c r="Q29" s="15">
+      <c r="Q29" s="51">
         <v>1397.9</v>
       </c>
-      <c r="R29" s="14"/>
+      <c r="R29" s="15">
+        <v>1472.4</v>
+      </c>
       <c r="S29" s="14"/>
     </row>
     <row r="30" spans="3:45" x14ac:dyDescent="0.25">
@@ -4533,10 +4573,12 @@
       <c r="P30" s="14">
         <v>362.7</v>
       </c>
-      <c r="Q30" s="15">
+      <c r="Q30" s="51">
         <v>240.9</v>
       </c>
-      <c r="R30" s="14"/>
+      <c r="R30" s="15">
+        <v>211.5</v>
+      </c>
       <c r="S30" s="14"/>
     </row>
     <row r="31" spans="3:45" x14ac:dyDescent="0.25">
@@ -4544,63 +4586,69 @@
         <v>66</v>
       </c>
       <c r="D31" s="12">
-        <f t="shared" ref="D31:O31" si="47">SUM(D25:D30)</f>
+        <f t="shared" ref="D31:O31" si="51">SUM(D25:D30)</f>
         <v>7547.8000000000011</v>
       </c>
       <c r="E31" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>6856.4</v>
       </c>
       <c r="F31" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>7224.5</v>
       </c>
       <c r="G31" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>7605.5999999999995</v>
       </c>
       <c r="H31" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>7194.2999999999993</v>
       </c>
       <c r="I31" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>7488.7999999999993</v>
       </c>
       <c r="J31" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>7246.4000000000015</v>
       </c>
       <c r="K31" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>7026.1</v>
       </c>
       <c r="L31" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>7194.2999999999993</v>
       </c>
       <c r="M31" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>7073.9</v>
       </c>
       <c r="N31" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>6870.2</v>
       </c>
       <c r="O31" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>6809.3</v>
       </c>
       <c r="P31" s="12">
         <f>SUM(P25:P30)</f>
         <v>6718.0999999999995</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="Q31" s="50">
         <f>SUM(Q25:Q30)</f>
         <v>6501.5999999999985</v>
       </c>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
+      <c r="R31" s="13">
+        <f t="shared" ref="R31:S31" si="52">SUM(R25:R30)</f>
+        <v>6427.9</v>
+      </c>
+      <c r="S31" s="50">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
       <c r="AB31" s="25"/>
     </row>
     <row r="32" spans="3:45" x14ac:dyDescent="0.25">
@@ -4646,10 +4694,12 @@
       <c r="P32" s="14">
         <v>27.4</v>
       </c>
-      <c r="Q32" s="15">
+      <c r="Q32" s="51">
         <v>27.4</v>
       </c>
-      <c r="R32" s="14"/>
+      <c r="R32" s="15">
+        <v>27.4</v>
+      </c>
       <c r="S32" s="14"/>
     </row>
     <row r="33" spans="3:32" x14ac:dyDescent="0.25">
@@ -4695,10 +4745,12 @@
       <c r="P33" s="14">
         <v>2870.9</v>
       </c>
-      <c r="Q33" s="15">
+      <c r="Q33" s="51">
         <v>2900.3</v>
       </c>
-      <c r="R33" s="14"/>
+      <c r="R33" s="15">
+        <v>2885.8</v>
+      </c>
       <c r="S33" s="14"/>
     </row>
     <row r="34" spans="3:32" x14ac:dyDescent="0.25">
@@ -4744,10 +4796,12 @@
       <c r="P34" s="14">
         <v>1186.0999999999999</v>
       </c>
-      <c r="Q34" s="15">
+      <c r="Q34" s="51">
         <v>1099.2</v>
       </c>
-      <c r="R34" s="14"/>
+      <c r="R34" s="15">
+        <v>1108.2</v>
+      </c>
       <c r="S34" s="14"/>
     </row>
     <row r="35" spans="3:32" x14ac:dyDescent="0.25">
@@ -4793,10 +4847,12 @@
       <c r="P35" s="14">
         <v>0.4</v>
       </c>
-      <c r="Q35" s="15">
+      <c r="Q35" s="51">
         <v>-4.5</v>
       </c>
-      <c r="R35" s="14"/>
+      <c r="R35" s="15">
+        <v>-3.8</v>
+      </c>
       <c r="S35" s="14"/>
     </row>
     <row r="36" spans="3:32" x14ac:dyDescent="0.25">
@@ -4804,63 +4860,69 @@
         <v>71</v>
       </c>
       <c r="D36" s="16">
-        <f t="shared" ref="D36:O36" si="48">SUM(D32:D35)</f>
+        <f t="shared" ref="D36:O36" si="53">SUM(D32:D35)</f>
         <v>4283.7000000000007</v>
       </c>
       <c r="E36" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>4083.7999999999997</v>
       </c>
       <c r="F36" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>4136.8999999999996</v>
       </c>
       <c r="G36" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>4207.7</v>
       </c>
       <c r="H36" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>4290.8</v>
       </c>
       <c r="I36" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>4289</v>
       </c>
       <c r="J36" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>4164.1000000000004</v>
       </c>
       <c r="K36" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>4165.7</v>
       </c>
       <c r="L36" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>4290.8</v>
       </c>
       <c r="M36" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>4131.1000000000004</v>
       </c>
       <c r="N36" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>4079.0000000000005</v>
       </c>
       <c r="O36" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>4137.6000000000004</v>
       </c>
       <c r="P36" s="16">
         <f>SUM(P32:P35)</f>
         <v>4084.8</v>
       </c>
-      <c r="Q36" s="40">
+      <c r="Q36" s="57">
         <f>SUM(Q32:Q35)</f>
         <v>4022.4000000000005</v>
       </c>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
+      <c r="R36" s="40">
+        <f t="shared" ref="R36:S36" si="54">SUM(R32:R35)</f>
+        <v>4017.6000000000004</v>
+      </c>
+      <c r="S36" s="57">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
@@ -4905,10 +4967,12 @@
       <c r="P37" s="14">
         <v>193.3</v>
       </c>
-      <c r="Q37" s="15">
+      <c r="Q37" s="51">
         <v>184.3</v>
       </c>
-      <c r="R37" s="14"/>
+      <c r="R37" s="15">
+        <v>193.7</v>
+      </c>
       <c r="S37" s="14"/>
     </row>
     <row r="38" spans="3:32" x14ac:dyDescent="0.25">
@@ -4954,10 +5018,12 @@
       <c r="P38" s="14">
         <v>835.2</v>
       </c>
-      <c r="Q38" s="15">
+      <c r="Q38" s="51">
         <v>737.1</v>
       </c>
-      <c r="R38" s="14"/>
+      <c r="R38" s="15">
+        <v>663.8</v>
+      </c>
       <c r="S38" s="14"/>
     </row>
     <row r="39" spans="3:32" x14ac:dyDescent="0.25">
@@ -5003,10 +5069,12 @@
       <c r="P39" s="14">
         <v>153</v>
       </c>
-      <c r="Q39" s="15">
+      <c r="Q39" s="51">
         <v>150.69999999999999</v>
       </c>
-      <c r="R39" s="14"/>
+      <c r="R39" s="15">
+        <v>155.9</v>
+      </c>
       <c r="S39" s="14"/>
     </row>
     <row r="40" spans="3:32" x14ac:dyDescent="0.25">
@@ -5052,11 +5120,14 @@
       <c r="P40" s="14">
         <v>1451.9</v>
       </c>
-      <c r="Q40" s="15">
+      <c r="Q40" s="51">
         <f>1359.4+47.7</f>
         <v>1407.1000000000001</v>
       </c>
-      <c r="R40" s="14"/>
+      <c r="R40" s="15">
+        <f>97.1+1299.8</f>
+        <v>1396.8999999999999</v>
+      </c>
       <c r="S40" s="14"/>
     </row>
     <row r="41" spans="3:32" x14ac:dyDescent="0.25">
@@ -5064,126 +5135,138 @@
         <v>76</v>
       </c>
       <c r="D41" s="16">
-        <f t="shared" ref="D41:O41" si="49">SUM(D37:D40)</f>
+        <f t="shared" ref="D41:O41" si="55">SUM(D37:D40)</f>
         <v>3264.1000000000004</v>
       </c>
       <c r="E41" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>2772.6</v>
       </c>
       <c r="F41" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>3087.4</v>
       </c>
       <c r="G41" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>3397.8999999999996</v>
       </c>
       <c r="H41" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>2903.5</v>
       </c>
       <c r="I41" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>3199.8</v>
       </c>
       <c r="J41" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>3082.3</v>
       </c>
       <c r="K41" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>2860.4</v>
       </c>
       <c r="L41" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>2903.5</v>
       </c>
       <c r="M41" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>2942.8</v>
       </c>
       <c r="N41" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>2791.2</v>
       </c>
       <c r="O41" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>2671.6000000000004</v>
       </c>
       <c r="P41" s="16">
         <f>SUM(P37:P40)</f>
         <v>2633.4</v>
       </c>
-      <c r="Q41" s="40">
+      <c r="Q41" s="57">
         <f>SUM(Q37:Q40)</f>
         <v>2479.2000000000003</v>
       </c>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
+      <c r="R41" s="40">
+        <f t="shared" ref="R41:S41" si="56">SUM(R37:R40)</f>
+        <v>2410.2999999999997</v>
+      </c>
+      <c r="S41" s="57">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D42" s="12">
-        <f t="shared" ref="D42:O42" si="50">D36+D41</f>
+        <f t="shared" ref="D42:O42" si="57">D36+D41</f>
         <v>7547.8000000000011</v>
       </c>
       <c r="E42" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>6856.4</v>
       </c>
       <c r="F42" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>7224.2999999999993</v>
       </c>
       <c r="G42" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>7605.5999999999995</v>
       </c>
       <c r="H42" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>7194.3</v>
       </c>
       <c r="I42" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>7488.8</v>
       </c>
       <c r="J42" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>7246.4000000000005</v>
       </c>
       <c r="K42" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>7026.1</v>
       </c>
       <c r="L42" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>7194.3</v>
       </c>
       <c r="M42" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>7073.9000000000005</v>
       </c>
       <c r="N42" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>6870.2000000000007</v>
       </c>
       <c r="O42" s="12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>6809.2000000000007</v>
       </c>
       <c r="P42" s="12">
         <f>P36+P41</f>
         <v>6718.2000000000007</v>
       </c>
-      <c r="Q42" s="13">
+      <c r="Q42" s="50">
         <f>Q36+Q41</f>
         <v>6501.6</v>
       </c>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
+      <c r="R42" s="13">
+        <f t="shared" ref="R42:S42" si="58">R36+R41</f>
+        <v>6427.9</v>
+      </c>
+      <c r="S42" s="50">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="3:32" x14ac:dyDescent="0.25">
       <c r="D43" s="14"/>
@@ -5224,84 +5307,92 @@
         <v>78</v>
       </c>
       <c r="D45" s="14">
-        <f t="shared" ref="D45:Q45" si="51">D12</f>
+        <f t="shared" ref="D45:S45" si="59">D12</f>
         <v>133.29999999999998</v>
       </c>
       <c r="E45" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>153.20000000000013</v>
       </c>
       <c r="F45" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>37.200000000000003</v>
       </c>
       <c r="G45" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>136.70000000000016</v>
       </c>
       <c r="H45" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>82.099999999999895</v>
       </c>
       <c r="I45" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>33.100000000000044</v>
       </c>
       <c r="J45" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>38.700000000000038</v>
       </c>
       <c r="K45" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>99</v>
       </c>
       <c r="L45" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>82.099999999999895</v>
       </c>
       <c r="M45" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>11.90000000000005</v>
       </c>
       <c r="N45" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>4.9000000000000448</v>
       </c>
       <c r="O45" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>54.100000000000094</v>
       </c>
       <c r="P45" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>51.599999999999916</v>
       </c>
-      <c r="Q45" s="15">
-        <f t="shared" si="51"/>
+      <c r="Q45" s="51">
+        <f t="shared" si="59"/>
         <v>3.6999999999999513</v>
+      </c>
+      <c r="R45" s="15">
+        <f t="shared" si="59"/>
+        <v>26.99999999999995</v>
+      </c>
+      <c r="S45" s="51">
+        <f t="shared" si="59"/>
+        <v>0</v>
       </c>
       <c r="Y45" s="14"/>
       <c r="Z45" s="14">
-        <f t="shared" ref="Z45:AE45" si="52">Z12</f>
+        <f t="shared" ref="Z45:AE45" si="60">Z12</f>
         <v>313.19499999999994</v>
       </c>
       <c r="AA45" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>331.79000000000008</v>
       </c>
       <c r="AB45" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>369.49499999999989</v>
       </c>
       <c r="AC45" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>483.67599999999999</v>
       </c>
       <c r="AD45" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>304.13099999999906</v>
       </c>
       <c r="AE45" s="14">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>154.01799999999957</v>
       </c>
     </row>
@@ -5348,9 +5439,13 @@
       <c r="P46" s="14">
         <v>52</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="Q46" s="51">
         <v>4</v>
       </c>
+      <c r="R46" s="15">
+        <v>27</v>
+      </c>
+      <c r="S46" s="14"/>
       <c r="Z46" s="14">
         <v>313</v>
       </c>
@@ -5413,9 +5508,13 @@
       <c r="P47" s="14">
         <v>136.69999999999999</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="Q47" s="51">
         <v>76.2</v>
       </c>
+      <c r="R47" s="15">
+        <v>55.9</v>
+      </c>
+      <c r="S47" s="14"/>
       <c r="Z47" s="14">
         <f>79.389+2.5-2.7-4.8+8.6</f>
         <v>82.98899999999999</v>
@@ -5481,9 +5580,13 @@
       <c r="P48" s="14">
         <v>-8.9</v>
       </c>
-      <c r="Q48" s="4">
+      <c r="Q48" s="51">
         <v>-9.1</v>
       </c>
+      <c r="R48" s="15">
+        <v>-7.8</v>
+      </c>
+      <c r="S48" s="14"/>
       <c r="Z48" s="2">
         <v>0</v>
       </c>
@@ -5548,9 +5651,13 @@
       <c r="P49" s="14">
         <v>-87.4</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="Q49" s="51">
         <v>-20.8</v>
       </c>
+      <c r="R49" s="15">
+        <v>-23.5</v>
+      </c>
+      <c r="S49" s="14"/>
       <c r="Z49" s="14">
         <v>-82.947999999999993</v>
       </c>
@@ -5613,9 +5720,13 @@
       <c r="P50" s="14">
         <v>-55.9</v>
       </c>
-      <c r="Q50" s="4">
+      <c r="Q50" s="51">
         <v>-5.4</v>
       </c>
+      <c r="R50" s="15">
+        <v>-92.4</v>
+      </c>
+      <c r="S50" s="14"/>
       <c r="Z50" s="14">
         <f>2.1-10.2</f>
         <v>-8.1</v>
@@ -5646,43 +5757,43 @@
         <v>84</v>
       </c>
       <c r="D51" s="12">
-        <f t="shared" ref="D51:O51" si="53">SUM(D46:D50)</f>
+        <f t="shared" ref="D51:O51" si="61">SUM(D46:D50)</f>
         <v>106.20000000000002</v>
       </c>
       <c r="E51" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>130.5</v>
       </c>
       <c r="F51" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>19.799999999999997</v>
       </c>
       <c r="G51" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>319.7</v>
       </c>
       <c r="H51" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>101.39999999999999</v>
       </c>
       <c r="I51" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>121.80000000000001</v>
       </c>
       <c r="J51" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>-99.600000000000009</v>
       </c>
       <c r="K51" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>271.3</v>
       </c>
       <c r="L51" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>101.39999999999999</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>96.5</v>
       </c>
       <c r="N51" s="12">
@@ -5690,35 +5801,43 @@
         <v>170.6</v>
       </c>
       <c r="O51" s="12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>257.2</v>
       </c>
       <c r="P51" s="12">
         <f>SUM(P46:P50)</f>
         <v>36.499999999999979</v>
       </c>
-      <c r="Q51" s="13">
+      <c r="Q51" s="50">
         <f>SUM(Q46:Q50)</f>
         <v>44.900000000000013</v>
       </c>
+      <c r="R51" s="13">
+        <f t="shared" ref="R51:S51" si="62">SUM(R46:R50)</f>
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="S51" s="50">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
       <c r="Z51" s="12">
-        <f t="shared" ref="Z51:AD51" si="54">SUM(Z46:Z50)</f>
+        <f t="shared" ref="Z51:AD51" si="63">SUM(Z46:Z50)</f>
         <v>304.94099999999997</v>
       </c>
       <c r="AA51" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>441.46400000000006</v>
       </c>
       <c r="AB51" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>462.71400000000006</v>
       </c>
       <c r="AC51" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>475.75100000000003</v>
       </c>
       <c r="AD51" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>400.38500000000005</v>
       </c>
       <c r="AE51" s="12">
@@ -5739,6 +5858,9 @@
       <c r="N52" s="14"/>
       <c r="O52" s="14"/>
       <c r="P52" s="14"/>
+      <c r="Q52" s="51"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="14"/>
       <c r="Z52" s="14"/>
       <c r="AA52" s="14"/>
       <c r="AB52" s="14"/>
@@ -5790,9 +5912,13 @@
         <f>-2.8</f>
         <v>-2.8</v>
       </c>
-      <c r="Q53" s="4">
+      <c r="Q53" s="51">
         <v>-3.7</v>
       </c>
+      <c r="R53" s="15">
+        <v>63.9</v>
+      </c>
+      <c r="S53" s="14"/>
       <c r="Z53" s="14">
         <v>-25.933</v>
       </c>
@@ -5817,79 +5943,87 @@
         <v>86</v>
       </c>
       <c r="D54" s="12">
-        <f t="shared" ref="D54:O54" si="55">D53</f>
+        <f t="shared" ref="D54:O54" si="64">D53</f>
         <v>-21.8</v>
       </c>
       <c r="E54" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>-99.3</v>
       </c>
       <c r="F54" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>-313.60000000000002</v>
       </c>
       <c r="G54" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>-233.8</v>
       </c>
       <c r="H54" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>-4.2</v>
       </c>
       <c r="I54" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>-159.19999999999999</v>
       </c>
       <c r="J54" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>-9.3000000000000007</v>
       </c>
       <c r="K54" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>-17.2</v>
       </c>
       <c r="L54" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>-4.2</v>
       </c>
       <c r="M54" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>-24.9</v>
       </c>
       <c r="N54" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>-7</v>
       </c>
       <c r="O54" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>-4.0999999999999996</v>
       </c>
       <c r="P54" s="12">
         <f>P53</f>
         <v>-2.8</v>
       </c>
-      <c r="Q54" s="13">
+      <c r="Q54" s="50">
         <f>Q53</f>
         <v>-3.7</v>
       </c>
+      <c r="R54" s="13">
+        <f t="shared" ref="R54:S54" si="65">R53</f>
+        <v>63.9</v>
+      </c>
+      <c r="S54" s="50">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
       <c r="Z54" s="12">
-        <f t="shared" ref="Z54:AD54" si="56">Z53</f>
+        <f t="shared" ref="Z54:AD54" si="66">Z53</f>
         <v>-25.933</v>
       </c>
       <c r="AA54" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>-97.393000000000001</v>
       </c>
       <c r="AB54" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>-411.93900000000002</v>
       </c>
       <c r="AC54" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>-750.92399999999998</v>
       </c>
       <c r="AD54" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>-207.53299999999999</v>
       </c>
       <c r="AE54" s="12">
@@ -5911,6 +6045,9 @@
       <c r="N55" s="12"/>
       <c r="O55" s="12"/>
       <c r="P55" s="12"/>
+      <c r="Q55" s="51"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="14"/>
       <c r="Z55" s="12"/>
       <c r="AA55" s="12"/>
       <c r="AB55" s="12"/>
@@ -5961,9 +6098,13 @@
       <c r="P56" s="14">
         <v>-31.7</v>
       </c>
-      <c r="Q56" s="4">
+      <c r="Q56" s="51">
         <v>-140</v>
       </c>
+      <c r="R56" s="15">
+        <v>-35.6</v>
+      </c>
+      <c r="S56" s="14"/>
       <c r="Z56" s="14">
         <v>-72.436000000000007</v>
       </c>
@@ -6026,9 +6167,13 @@
       <c r="P57" s="14">
         <v>0</v>
       </c>
-      <c r="Q57" s="4">
-        <v>0</v>
-      </c>
+      <c r="Q57" s="51">
+        <v>0</v>
+      </c>
+      <c r="R57" s="15">
+        <v>0</v>
+      </c>
+      <c r="S57" s="14"/>
       <c r="Z57" s="14">
         <v>0</v>
       </c>
@@ -6091,10 +6236,13 @@
       <c r="P58" s="14">
         <v>0</v>
       </c>
-      <c r="Q58" s="4">
+      <c r="Q58" s="51">
         <v>-37.5</v>
       </c>
-      <c r="R58" s="14"/>
+      <c r="R58" s="15">
+        <v>0</v>
+      </c>
+      <c r="S58" s="14"/>
       <c r="Z58" s="14">
         <v>-122.93899999999999</v>
       </c>
@@ -6157,9 +6305,13 @@
       <c r="P59" s="14">
         <v>-7.5</v>
       </c>
-      <c r="Q59" s="4">
-        <v>0</v>
-      </c>
+      <c r="Q59" s="51">
+        <v>0</v>
+      </c>
+      <c r="R59" s="15">
+        <v>0</v>
+      </c>
+      <c r="S59" s="14"/>
       <c r="Z59" s="14">
         <v>0</v>
       </c>
@@ -6222,9 +6374,13 @@
       <c r="P60" s="14">
         <v>0</v>
       </c>
-      <c r="Q60" s="4">
-        <v>0</v>
-      </c>
+      <c r="Q60" s="51">
+        <v>0</v>
+      </c>
+      <c r="R60" s="15">
+        <v>0</v>
+      </c>
+      <c r="S60" s="14"/>
       <c r="Z60" s="14">
         <v>0</v>
       </c>
@@ -6249,67 +6405,75 @@
         <v>92</v>
       </c>
       <c r="D61" s="12">
-        <f t="shared" ref="D61:O61" si="57">SUM(D56:D60)</f>
+        <f t="shared" ref="D61:O61" si="67">SUM(D56:D60)</f>
         <v>-138.69999999999999</v>
       </c>
       <c r="E61" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="67"/>
         <v>-42.400000000000006</v>
       </c>
       <c r="F61" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="67"/>
         <v>217.5</v>
       </c>
       <c r="G61" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="67"/>
         <v>-232.6</v>
       </c>
       <c r="H61" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="67"/>
         <v>-36.9</v>
       </c>
       <c r="I61" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="67"/>
         <v>-53</v>
       </c>
       <c r="J61" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="67"/>
         <v>-136.5</v>
       </c>
       <c r="K61" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="67"/>
         <v>-247.5</v>
       </c>
       <c r="L61" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="67"/>
         <v>-36.9</v>
       </c>
       <c r="M61" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="67"/>
         <v>-119.3</v>
       </c>
       <c r="N61" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="67"/>
         <v>55.5</v>
       </c>
       <c r="O61" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="67"/>
         <v>-227.2</v>
       </c>
       <c r="P61" s="12">
         <f>SUM(P56:P60)</f>
         <v>-39.200000000000003</v>
       </c>
-      <c r="Q61" s="13">
+      <c r="Q61" s="50">
         <f>SUM(Q56:Q60)</f>
         <v>-177.5</v>
       </c>
+      <c r="R61" s="13">
+        <f t="shared" ref="R61:S61" si="68">SUM(R56:R60)</f>
+        <v>-35.6</v>
+      </c>
+      <c r="S61" s="50">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
       <c r="Z61" s="12">
-        <f t="shared" ref="Z61:AD61" si="58">SUM(Z56:Z60)</f>
+        <f t="shared" ref="Z61:AD61" si="69">SUM(Z56:Z60)</f>
         <v>-195.375</v>
       </c>
       <c r="AA61" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>56.385999999999989</v>
       </c>
       <c r="AB61" s="12">
@@ -6317,11 +6481,11 @@
         <v>126.60700000000003</v>
       </c>
       <c r="AC61" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>-88.237999999999971</v>
       </c>
       <c r="AD61" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>-575.55299999999988</v>
       </c>
       <c r="AE61" s="12">
@@ -6343,6 +6507,9 @@
       <c r="N62" s="14"/>
       <c r="O62" s="14"/>
       <c r="P62" s="14"/>
+      <c r="Q62" s="51"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="14"/>
       <c r="Z62" s="14"/>
       <c r="AA62" s="14"/>
       <c r="AB62" s="14"/>
@@ -6355,63 +6522,69 @@
         <v>93</v>
       </c>
       <c r="D63" s="14">
-        <f t="shared" ref="D63:O63" si="59">D51+D54+D61</f>
+        <f t="shared" ref="D63:O63" si="70">D51+D54+D61</f>
         <v>-54.299999999999969</v>
       </c>
       <c r="E63" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>-11.200000000000003</v>
       </c>
       <c r="F63" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>-76.300000000000011</v>
       </c>
       <c r="G63" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>-146.70000000000002</v>
       </c>
       <c r="H63" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>60.29999999999999</v>
       </c>
       <c r="I63" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>-90.399999999999977</v>
       </c>
       <c r="J63" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>-245.4</v>
       </c>
       <c r="K63" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>6.6000000000000227</v>
       </c>
       <c r="L63" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>60.29999999999999</v>
       </c>
       <c r="M63" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>-47.7</v>
       </c>
       <c r="N63" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>219.1</v>
       </c>
       <c r="O63" s="14">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>25.900000000000006</v>
       </c>
       <c r="P63" s="14">
         <f>P51+P54+P61</f>
         <v>-5.5000000000000213</v>
       </c>
-      <c r="Q63" s="15">
+      <c r="Q63" s="51">
         <f>Q51+Q54+Q61</f>
         <v>-136.29999999999998</v>
       </c>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
+      <c r="R63" s="15">
+        <f t="shared" ref="R63:S63" si="71">R51+R54+R61</f>
+        <v>-12.5</v>
+      </c>
+      <c r="S63" s="51">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
@@ -6419,27 +6592,27 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
       <c r="Z63" s="14">
-        <f t="shared" ref="Z63:AE63" si="60">Z51+Z54+Z61</f>
+        <f t="shared" ref="Z63:AE63" si="72">Z51+Z54+Z61</f>
         <v>83.632999999999981</v>
       </c>
       <c r="AA63" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>400.45699999999999</v>
       </c>
       <c r="AB63" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>177.38200000000006</v>
       </c>
       <c r="AC63" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>-363.41099999999994</v>
       </c>
       <c r="AD63" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>-382.70099999999979</v>
       </c>
       <c r="AE63" s="14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>257.61400000000015</v>
       </c>
     </row>
@@ -6457,9 +6630,9 @@
       <c r="N64" s="14"/>
       <c r="O64" s="14"/>
       <c r="P64" s="14"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
+      <c r="Q64" s="51"/>
+      <c r="R64" s="15"/>
+      <c r="S64" s="51"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
@@ -6478,63 +6651,69 @@
         <v>94</v>
       </c>
       <c r="D65" s="14">
-        <f t="shared" ref="D65:O65" si="61">D51+D54</f>
+        <f t="shared" ref="D65:O65" si="73">D51+D54</f>
         <v>84.40000000000002</v>
       </c>
       <c r="E65" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>31.200000000000003</v>
       </c>
       <c r="F65" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>-293.8</v>
       </c>
       <c r="G65" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>85.899999999999977</v>
       </c>
       <c r="H65" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>97.199999999999989</v>
       </c>
       <c r="I65" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>-37.399999999999977</v>
       </c>
       <c r="J65" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>-108.9</v>
       </c>
       <c r="K65" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>254.10000000000002</v>
       </c>
       <c r="L65" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>97.199999999999989</v>
       </c>
       <c r="M65" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>71.599999999999994</v>
       </c>
       <c r="N65" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>163.6</v>
       </c>
       <c r="O65" s="14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="73"/>
         <v>253.1</v>
       </c>
       <c r="P65" s="14">
         <f>P51+P54</f>
         <v>33.699999999999982</v>
       </c>
-      <c r="Q65" s="15">
+      <c r="Q65" s="51">
         <f>Q51+Q54</f>
         <v>41.20000000000001</v>
       </c>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
+      <c r="R65" s="15">
+        <f t="shared" ref="R65:S65" si="74">R51+R54</f>
+        <v>23.1</v>
+      </c>
+      <c r="S65" s="51">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
@@ -6542,27 +6721,27 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
       <c r="Z65" s="14">
-        <f t="shared" ref="Z65:AE65" si="62">Z51+Z54</f>
+        <f t="shared" ref="Z65:AE65" si="75">Z51+Z54</f>
         <v>279.00799999999998</v>
       </c>
       <c r="AA65" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>344.07100000000003</v>
       </c>
       <c r="AB65" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>50.775000000000034</v>
       </c>
       <c r="AC65" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>-275.17299999999994</v>
       </c>
       <c r="AD65" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>192.85200000000006</v>
       </c>
       <c r="AE65" s="14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="75"/>
         <v>585.54800000000012</v>
       </c>
     </row>
@@ -6581,8 +6760,8 @@
       <c r="N66" s="12"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
-      <c r="Q66" s="41"/>
-      <c r="R66" s="1"/>
+      <c r="Q66" s="58"/>
+      <c r="R66" s="41"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
@@ -6605,7 +6784,7 @@
       <c r="L67" s="14"/>
       <c r="M67" s="14"/>
       <c r="N67" s="14"/>
-      <c r="R67" s="1"/>
+      <c r="R67" s="41"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
@@ -6627,7 +6806,7 @@
       <c r="L68" s="14"/>
       <c r="M68" s="14"/>
       <c r="N68" s="14"/>
-      <c r="R68" s="1"/>
+      <c r="R68" s="41"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
@@ -6639,7 +6818,7 @@
       <c r="AA68" s="1"/>
     </row>
     <row r="69" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="R69" s="1"/>
+      <c r="R69" s="41"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
@@ -6660,10 +6839,10 @@
   <dimension ref="B4:X32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -6805,7 +6984,9 @@
       <c r="S6" s="14">
         <v>802.9</v>
       </c>
-      <c r="T6" s="14"/>
+      <c r="T6" s="14">
+        <v>647.70000000000005</v>
+      </c>
       <c r="U6" s="14"/>
       <c r="V6" s="12">
         <v>3366</v>
@@ -6870,7 +7051,7 @@
       </c>
       <c r="T7" s="31">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-0.13628483797839702</v>
       </c>
       <c r="U7" s="31">
         <f t="shared" si="0"/>
@@ -6939,11 +7120,13 @@
       <c r="S8" s="14">
         <v>54.3</v>
       </c>
-      <c r="T8" s="14"/>
+      <c r="T8" s="14">
+        <v>64.2</v>
+      </c>
       <c r="U8" s="14"/>
       <c r="V8" s="12">
         <f>SUM(R8:U8)</f>
-        <v>134.6</v>
+        <v>198.8</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
@@ -7018,9 +7201,9 @@
         <f t="shared" ref="S9:V9" si="2">S8/S6</f>
         <v>6.7629841823390213E-2</v>
       </c>
-      <c r="T9" s="31" t="e">
+      <c r="T9" s="31">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>9.9119962945808243E-2</v>
       </c>
       <c r="U9" s="31" t="e">
         <f t="shared" si="2"/>
@@ -7028,7 +7211,7 @@
       </c>
       <c r="V9" s="32">
         <f t="shared" si="2"/>
-        <v>3.9988116458704689E-2</v>
+        <v>5.9061200237670829E-2</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
@@ -7079,6 +7262,9 @@
       </c>
       <c r="S10" s="2">
         <v>1646</v>
+      </c>
+      <c r="T10" s="2">
+        <v>1656</v>
       </c>
       <c r="V10" s="1"/>
     </row>
@@ -7135,7 +7321,7 @@
       </c>
       <c r="T11" s="38">
         <f>(T10-O10)/O10</f>
-        <v>-1</v>
+        <v>-6.0158910329171394E-2</v>
       </c>
       <c r="U11" s="38">
         <f>(U10-P10)/P10</f>
@@ -7210,11 +7396,13 @@
       <c r="S13" s="14">
         <v>267.39999999999998</v>
       </c>
-      <c r="T13" s="14"/>
+      <c r="T13" s="14">
+        <v>225.1</v>
+      </c>
       <c r="U13" s="14"/>
       <c r="V13" s="12">
         <f>SUM(R13:U13)</f>
-        <v>553.5</v>
+        <v>778.6</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
@@ -7276,7 +7464,7 @@
       </c>
       <c r="T14" s="31">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>-4.3755310110450342E-2</v>
       </c>
       <c r="U14" s="31">
         <f t="shared" si="3"/>
@@ -7284,7 +7472,7 @@
       </c>
       <c r="V14" s="32">
         <f t="shared" si="3"/>
-        <v>-0.53128969430095696</v>
+        <v>-0.34067236853247529</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
@@ -7345,11 +7533,13 @@
       <c r="S15" s="14">
         <v>6.3</v>
       </c>
-      <c r="T15" s="14"/>
+      <c r="T15" s="14">
+        <v>6.8</v>
+      </c>
       <c r="U15" s="14"/>
       <c r="V15" s="12">
         <f>SUM(R15:U15)</f>
-        <v>24</v>
+        <v>30.8</v>
       </c>
       <c r="W15" s="31"/>
       <c r="X15" s="31"/>
@@ -7426,9 +7616,9 @@
         <f t="shared" ref="S16" si="17">S15/S13</f>
         <v>2.356020942408377E-2</v>
       </c>
-      <c r="T16" s="31" t="e">
+      <c r="T16" s="31">
         <f>T15/T13</f>
-        <v>#DIV/0!</v>
+        <v>3.0208796090626388E-2</v>
       </c>
       <c r="U16" s="31" t="e">
         <f t="shared" ref="U16:V16" si="18">U15/U13</f>
@@ -7436,7 +7626,7 @@
       </c>
       <c r="V16" s="32">
         <f t="shared" si="18"/>
-        <v>4.3360433604336043E-2</v>
+        <v>3.9558181351143078E-2</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
@@ -7487,6 +7677,9 @@
       </c>
       <c r="S17" s="2">
         <v>770</v>
+      </c>
+      <c r="T17" s="2">
+        <v>775</v>
       </c>
       <c r="V17" s="1"/>
     </row>
@@ -7543,7 +7736,7 @@
       </c>
       <c r="T18" s="38">
         <f>(T17-O17)/O17</f>
-        <v>-1</v>
+        <v>-5.1407588739290085E-2</v>
       </c>
       <c r="U18" s="38">
         <f>(U17-P17)/P17</f>
@@ -7618,7 +7811,9 @@
       <c r="S20" s="14">
         <v>200.9</v>
       </c>
-      <c r="T20" s="14"/>
+      <c r="T20" s="14">
+        <v>190.8</v>
+      </c>
       <c r="U20" s="14"/>
       <c r="V20" s="12">
         <v>819</v>
@@ -7683,7 +7878,7 @@
       </c>
       <c r="T21" s="31">
         <f t="shared" si="19"/>
-        <v>-1</v>
+        <v>7.9239302694136295E-3</v>
       </c>
       <c r="U21" s="31">
         <f t="shared" si="19"/>
@@ -7754,11 +7949,13 @@
       <c r="S22" s="14">
         <v>13.4</v>
       </c>
-      <c r="T22" s="14"/>
+      <c r="T22" s="14">
+        <v>20.7</v>
+      </c>
       <c r="U22" s="14"/>
       <c r="V22" s="12">
         <f>SUM(R22:U22)</f>
-        <v>30.700000000000003</v>
+        <v>51.400000000000006</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
@@ -7833,9 +8030,9 @@
         <f t="shared" ref="S23" si="32">S22/S20</f>
         <v>6.6699850671976105E-2</v>
       </c>
-      <c r="T23" s="31" t="e">
+      <c r="T23" s="31">
         <f>T22/T20</f>
-        <v>#DIV/0!</v>
+        <v>0.10849056603773584</v>
       </c>
       <c r="U23" s="31" t="e">
         <f t="shared" ref="U23:V23" si="33">U22/U20</f>
@@ -7843,7 +8040,7 @@
       </c>
       <c r="V23" s="32">
         <f t="shared" si="33"/>
-        <v>3.748473748473749E-2</v>
+        <v>6.2759462759462772E-2</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
@@ -7894,6 +8091,9 @@
       </c>
       <c r="S24" s="2">
         <v>687</v>
+      </c>
+      <c r="T24" s="2">
+        <v>696</v>
       </c>
       <c r="V24" s="1"/>
     </row>
@@ -7950,7 +8150,7 @@
       </c>
       <c r="T25" s="38">
         <f>(T24-O24)/O24</f>
-        <v>-1</v>
+        <v>-1.8335684062059238E-2</v>
       </c>
       <c r="U25" s="38">
         <f>(U24-P24)/P24</f>
@@ -8025,11 +8225,13 @@
       <c r="S27" s="14">
         <v>229.1</v>
       </c>
-      <c r="T27" s="14"/>
+      <c r="T27" s="14">
+        <v>166.6</v>
+      </c>
       <c r="U27" s="14"/>
       <c r="V27" s="12">
         <f>SUM(R27:U27)</f>
-        <v>457</v>
+        <v>623.6</v>
       </c>
       <c r="W27" s="20"/>
       <c r="X27" s="20"/>
@@ -8093,7 +8295,7 @@
       </c>
       <c r="T28" s="31">
         <f t="shared" si="34"/>
-        <v>-1</v>
+        <v>4.7140163419233189E-2</v>
       </c>
       <c r="U28" s="31">
         <f t="shared" si="34"/>
@@ -8101,7 +8303,7 @@
       </c>
       <c r="V28" s="32">
         <f t="shared" si="34"/>
-        <v>-0.46854285382021166</v>
+        <v>-0.27479939527852071</v>
       </c>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
@@ -8162,11 +8364,13 @@
       <c r="S29" s="14">
         <v>8.6</v>
       </c>
-      <c r="T29" s="14"/>
+      <c r="T29" s="14">
+        <v>-10.8</v>
+      </c>
       <c r="U29" s="14"/>
       <c r="V29" s="12">
         <f>SUM(R29:U29)</f>
-        <v>22</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
@@ -8241,9 +8445,9 @@
         <f t="shared" ref="S30" si="47">S29/S27</f>
         <v>3.7538192928852028E-2</v>
       </c>
-      <c r="T30" s="31" t="e">
+      <c r="T30" s="31">
         <f>T29/T27</f>
-        <v>#DIV/0!</v>
+        <v>-6.4825930372148871E-2</v>
       </c>
       <c r="U30" s="31" t="e">
         <f t="shared" ref="U30:V30" si="48">U29/U27</f>
@@ -8251,7 +8455,7 @@
       </c>
       <c r="V30" s="32">
         <f t="shared" si="48"/>
-        <v>4.8140043763676151E-2</v>
+        <v>1.7960230917254648E-2</v>
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
@@ -8302,6 +8506,9 @@
       </c>
       <c r="S31" s="2">
         <v>539</v>
+      </c>
+      <c r="T31" s="2">
+        <v>556</v>
       </c>
       <c r="V31" s="1"/>
     </row>
@@ -8358,7 +8565,7 @@
       </c>
       <c r="T32" s="38">
         <f>(T31-O31)/O31</f>
-        <v>-1</v>
+        <v>-1.5929203539823009E-2</v>
       </c>
       <c r="U32" s="38">
         <f>(U31-P31)/P31</f>
@@ -8376,7 +8583,7 @@
   <dimension ref="C4:F6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8404,15 +8611,15 @@
       </c>
       <c r="D5" s="27">
         <f>Modell!$B$9/Modell!AF9</f>
-        <v>16.877862404189337</v>
+        <v>15.468529233522965</v>
       </c>
       <c r="E5" s="27">
         <f>Modell!$B$9/Modell!AG9</f>
-        <v>14.674476515419482</v>
+        <v>13.449130199631767</v>
       </c>
       <c r="F5" s="27">
         <f>Modell!$B$9/Modell!AH9</f>
-        <v>11.685825721518839</v>
+        <v>10.710037353207762</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="62" x14ac:dyDescent="0.7">
@@ -8421,15 +8628,15 @@
       </c>
       <c r="D6" s="27">
         <f>Modell!$B$4/Modell!AF16</f>
-        <v>17.551085340936449</v>
+        <v>15.997891947933223</v>
       </c>
       <c r="E6" s="27">
         <f>Modell!$B$4/Modell!AG16</f>
-        <v>15.259810957563355</v>
+        <v>13.909385209106421</v>
       </c>
       <c r="F6" s="27">
         <f>Modell!$B$4/Modell!AH16</f>
-        <v>12.151949080161879</v>
+        <v>11.076555356253749</v>
       </c>
     </row>
   </sheetData>
@@ -8441,11 +8648,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC9A9D2-A120-D243-98E4-365EB27547A6}">
   <dimension ref="A3:DV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA9" sqref="AA9"/>
+      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -8611,7 +8818,7 @@
     <row r="5" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A5" s="47">
         <f>AA21</f>
-        <v>80.465901006293691</v>
+        <v>76.333160685570803</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>48</v>
@@ -8704,7 +8911,7 @@
     <row r="6" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <f>AA22</f>
-        <v>-0.28791238047527706</v>
+        <v>-0.25890135256727376</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>49</v>
@@ -9435,412 +9642,412 @@
         <v>175.8119763000002</v>
       </c>
       <c r="Y14" s="12">
-        <f>X14*(1+$AS$18)</f>
-        <v>175.8119763000002</v>
+        <f>X14*(1+$AA$18)</f>
+        <v>174.0538565370002</v>
       </c>
       <c r="Z14" s="12">
-        <f t="shared" ref="Z14:CK14" si="9">Y14*(1+$AS$18)</f>
-        <v>175.8119763000002</v>
+        <f t="shared" ref="Z14:CK14" si="9">Y14*(1+$AA$18)</f>
+        <v>172.3133179716302</v>
       </c>
       <c r="AA14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>170.59018479191388</v>
       </c>
       <c r="AB14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>168.88428294399475</v>
       </c>
       <c r="AC14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>167.1954401145548</v>
       </c>
       <c r="AD14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>165.52348571340926</v>
       </c>
       <c r="AE14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>163.86825085627515</v>
       </c>
       <c r="AF14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>162.22956834771239</v>
       </c>
       <c r="AG14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>160.60727266423527</v>
       </c>
       <c r="AH14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>159.0011999375929</v>
       </c>
       <c r="AI14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>157.41118793821698</v>
       </c>
       <c r="AJ14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>155.83707605883481</v>
       </c>
       <c r="AK14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>154.27870529824645</v>
       </c>
       <c r="AL14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>152.73591824526397</v>
       </c>
       <c r="AM14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>151.20855906281133</v>
       </c>
       <c r="AN14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>149.69647347218321</v>
       </c>
       <c r="AO14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>148.19950873746137</v>
       </c>
       <c r="AP14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>146.71751365008674</v>
       </c>
       <c r="AQ14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>145.25033851358589</v>
       </c>
       <c r="AR14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>143.79783512845003</v>
       </c>
       <c r="AS14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>142.35985677716553</v>
       </c>
       <c r="AT14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>140.93625820939388</v>
       </c>
       <c r="AU14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>139.52689562729995</v>
       </c>
       <c r="AV14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>138.13162667102694</v>
       </c>
       <c r="AW14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>136.75031040431668</v>
       </c>
       <c r="AX14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>135.3828073002735</v>
       </c>
       <c r="AY14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>134.02897922727075</v>
       </c>
       <c r="AZ14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>132.68868943499805</v>
       </c>
       <c r="BA14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>131.36180254064809</v>
       </c>
       <c r="BB14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>130.04818451524162</v>
       </c>
       <c r="BC14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>128.74770267008921</v>
       </c>
       <c r="BD14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>127.46022564338831</v>
       </c>
       <c r="BE14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>126.18562338695443</v>
       </c>
       <c r="BF14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>124.92376715308488</v>
       </c>
       <c r="BG14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>123.67452948155403</v>
       </c>
       <c r="BH14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>122.4377841867385</v>
       </c>
       <c r="BI14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>121.21340634487112</v>
       </c>
       <c r="BJ14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>120.0012722814224</v>
       </c>
       <c r="BK14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>118.80125955860818</v>
       </c>
       <c r="BL14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>117.61324696302209</v>
       </c>
       <c r="BM14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>116.43711449339187</v>
       </c>
       <c r="BN14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>115.27274334845795</v>
       </c>
       <c r="BO14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>114.12001591497337</v>
       </c>
       <c r="BP14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>112.97881575582363</v>
       </c>
       <c r="BQ14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>111.84902759826539</v>
       </c>
       <c r="BR14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>110.73053732228274</v>
       </c>
       <c r="BS14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>109.62323194905991</v>
       </c>
       <c r="BT14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>108.52699962956932</v>
       </c>
       <c r="BU14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>107.44172963327362</v>
       </c>
       <c r="BV14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>106.36731233694088</v>
       </c>
       <c r="BW14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>105.30363921357147</v>
       </c>
       <c r="BX14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>104.25060282143576</v>
       </c>
       <c r="BY14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>103.2080967932214</v>
       </c>
       <c r="BZ14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>102.17601582528918</v>
       </c>
       <c r="CA14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>101.1542556670363</v>
       </c>
       <c r="CB14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>100.14271311036593</v>
       </c>
       <c r="CC14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>99.141285979262278</v>
       </c>
       <c r="CD14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>98.14987311946966</v>
       </c>
       <c r="CE14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>97.16837438827497</v>
       </c>
       <c r="CF14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>96.19669064439222</v>
       </c>
       <c r="CG14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>95.2347237379483</v>
       </c>
       <c r="CH14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>94.282376500568816</v>
       </c>
       <c r="CI14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>93.339552735563132</v>
       </c>
       <c r="CJ14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>92.406157208207503</v>
       </c>
       <c r="CK14" s="12">
         <f t="shared" si="9"/>
-        <v>175.8119763000002</v>
+        <v>91.482095636125422</v>
       </c>
       <c r="CL14" s="12">
-        <f t="shared" ref="CL14:DV14" si="10">CK14*(1+$AS$18)</f>
-        <v>175.8119763000002</v>
+        <f t="shared" ref="CL14:DV14" si="10">CK14*(1+$AA$18)</f>
+        <v>90.567274679764168</v>
       </c>
       <c r="CM14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>89.661601932966519</v>
       </c>
       <c r="CN14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>88.764985913636849</v>
       </c>
       <c r="CO14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>87.877336054500475</v>
       </c>
       <c r="CP14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>86.998562693955463</v>
       </c>
       <c r="CQ14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>86.128577067015911</v>
       </c>
       <c r="CR14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>85.267291296345746</v>
       </c>
       <c r="CS14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>84.41461838338229</v>
       </c>
       <c r="CT14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>83.570472199548462</v>
       </c>
       <c r="CU14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>82.734767477552978</v>
       </c>
       <c r="CV14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>81.907419802777454</v>
       </c>
       <c r="CW14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>81.088345604749676</v>
       </c>
       <c r="CX14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>80.277462148702185</v>
       </c>
       <c r="CY14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>79.474687527215167</v>
       </c>
       <c r="CZ14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>78.679940651943014</v>
       </c>
       <c r="DA14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>77.893141245423578</v>
       </c>
       <c r="DB14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>77.114209832969337</v>
       </c>
       <c r="DC14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>76.343067734639646</v>
       </c>
       <c r="DD14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>75.579637057293255</v>
       </c>
       <c r="DE14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>74.823840686720317</v>
       </c>
       <c r="DF14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>74.075602279853115</v>
       </c>
       <c r="DG14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>73.334846257054579</v>
       </c>
       <c r="DH14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>72.601497794484033</v>
       </c>
       <c r="DI14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>71.87548281653919</v>
       </c>
       <c r="DJ14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>71.156727988373802</v>
       </c>
       <c r="DK14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>70.445160708490064</v>
       </c>
       <c r="DL14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>69.740709101405159</v>
       </c>
       <c r="DM14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>69.043302010391102</v>
       </c>
       <c r="DN14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>68.352868990287192</v>
       </c>
       <c r="DO14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>67.66934030038432</v>
       </c>
       <c r="DP14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>66.992646897380482</v>
       </c>
       <c r="DQ14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>66.322720428406683</v>
       </c>
       <c r="DR14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>65.659493224122613</v>
       </c>
       <c r="DS14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>65.00289829188138</v>
       </c>
       <c r="DT14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>64.352869308962568</v>
       </c>
       <c r="DU14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>63.709340615872939</v>
       </c>
       <c r="DV14" s="12">
         <f t="shared" si="10"/>
-        <v>175.8119763000002</v>
+        <v>63.072247209714206</v>
       </c>
     </row>
     <row r="15" spans="1:126" x14ac:dyDescent="0.25">
@@ -10201,7 +10408,7 @@
       </c>
       <c r="AA19" s="34">
         <f>NPV(AA17,N14:DV14)</f>
-        <v>2197.2823587788616</v>
+        <v>2084.4296188408816</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
@@ -10392,7 +10599,7 @@
       </c>
       <c r="AA21" s="19">
         <f>AA19/AA20</f>
-        <v>80.465901006293691</v>
+        <v>76.333160685570803</v>
       </c>
     </row>
     <row r="22" spans="2:27" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -10446,7 +10653,7 @@
       </c>
       <c r="AA22" s="46">
         <f>(AA21-Modell!B4)/Modell!B4</f>
-        <v>-0.28791238047527706</v>
+        <v>-0.25890135256727376</v>
       </c>
     </row>
   </sheetData>
